--- a/data-raw/bd_eliminadas_enc_chih_dic_2024.xlsx
+++ b/data-raw/bd_eliminadas_enc_chih_dic_2024.xlsx
@@ -427,16 +427,14 @@
     <t>YERKA MIRANDA</t>
   </si>
   <si>
-    <t>Observación:
- B3 P4: lee las opciones de respuestas y la instrucción dice “no leer”
+    <t>B3 P4: lee las opciones de respuestas y la instrucción dice “no leer”
  B4 P13: MARCO, FRANCO - No lee la pregunta textualmente
  B4 P13: FRANCO - Debe insistir por una respuesta concreta
  B4 P14: MICHELLE, CAROLINA, EVELYN, JOSE ANTONIO - No lee la pregunta textualmente
  B4 P15: EVELYN, JOSE ANTONIO - No lee la pregunta textualmente
  B4 P16: EVELYN - No lee la pregunta textualmente
  B5 P20, B5 P23, B5 P25, B7 P33, B8 P35, B8 P29: No lee la pregunta textualmente
- B5: P19,20 y 22: El agente no da el dispositivo al encuestado
- Resolución: Retroalimentación</t>
+ B5: P19,20 y 22: El agente no da el dispositivo al encuestado</t>
   </si>
   <si>
     <t>Valparaiso</t>
